--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Város</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>17.30329</t>
+  </si>
+  <si>
+    <t>Kővágóörs</t>
+  </si>
+  <si>
+    <t>46.84921</t>
+  </si>
+  <si>
+    <t>17.59911</t>
   </si>
 </sst>
 </file>
@@ -712,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,237 +954,248 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>46</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="C39" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>118</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coordinates.xlsx
+++ b/coordinates.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>Város</t>
   </si>
@@ -402,6 +402,24 @@
   </si>
   <si>
     <t>17.59911</t>
+  </si>
+  <si>
+    <t>Aszófő</t>
+  </si>
+  <si>
+    <t>46.92906</t>
+  </si>
+  <si>
+    <t>17.83345</t>
+  </si>
+  <si>
+    <t>Balatonkeresztúr</t>
+  </si>
+  <si>
+    <t>46.69767</t>
+  </si>
+  <si>
+    <t>17.37019</t>
   </si>
 </sst>
 </file>
@@ -721,11 +739,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -887,315 +903,337 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>74</v>
+      <c r="A15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>100</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C33" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>129</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>55</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B44" t="s">
         <v>118</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
